--- a/1.3.xlsx
+++ b/1.3.xlsx
@@ -448,13 +448,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -767,6 +767,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -790,7 +793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="60" customHeight="1">
       <c r="A3">
         <v>1.3</v>
       </c>
